--- a/en/en_corporate_job_list.xlsx
+++ b/en/en_corporate_job_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAKCIL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\corporate-job-list-kurumsal-meslek-listesi\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A379498-6919-404E-BDEF-C8432CB471E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E1B17-CC5E-474A-9AE4-FD10BCAEA1EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
   <si>
     <t>Academic Counselor</t>
   </si>
@@ -1279,18 +1279,35 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Pharmacists</t>
+  </si>
+  <si>
+    <t>Scholar</t>
+  </si>
+  <si>
+    <t>Farmer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1321,14 +1338,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1612,19 +1632,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>416</v>
       </c>
@@ -1632,7 +1652,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1640,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1648,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1656,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1664,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1672,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1680,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1688,7 +1708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1696,7 +1716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1704,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1712,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1720,7 +1740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1728,7 +1748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1736,7 +1756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1752,7 +1772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1760,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1768,7 +1788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1776,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1784,7 +1804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1800,7 +1820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1808,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1824,7 +1844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1832,7 +1852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1840,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1848,7 +1868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1856,7 +1876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1872,7 +1892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1880,7 +1900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1888,7 +1908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1896,7 +1916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1904,7 +1924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1920,7 +1940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1928,7 +1948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1944,7 +1964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1952,7 +1972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1960,7 +1980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1968,7 +1988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1976,7 +1996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1984,7 +2004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1992,7 +2012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2000,7 +2020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2008,7 +2028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2024,7 +2044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2032,7 +2052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2040,7 +2060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2048,7 +2068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2064,7 +2084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2072,7 +2092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2088,7 +2108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2096,7 +2116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2112,7 +2132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2120,7 +2140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2128,7 +2148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2136,7 +2156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2144,7 +2164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2152,7 +2172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2160,7 +2180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2176,7 +2196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2184,7 +2204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2192,7 +2212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2208,7 +2228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2216,7 +2236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2224,7 +2244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2232,7 +2252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2240,7 +2260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2256,7 +2276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2264,7 +2284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2280,7 +2300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2288,7 +2308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2296,7 +2316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2304,7 +2324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2312,7 +2332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2320,7 +2340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2336,7 +2356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2344,7 +2364,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2352,7 +2372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2360,7 +2380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2376,7 +2396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2384,7 +2404,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2392,7 +2412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2400,7 +2420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2408,7 +2428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2440,7 +2460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2448,7 +2468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2456,7 +2476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2464,7 +2484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2472,7 +2492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2480,7 +2500,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2488,7 +2508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2496,7 +2516,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2504,7 +2524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2512,7 +2532,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2520,7 +2540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2528,7 +2548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2536,7 +2556,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2568,7 +2588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2576,7 +2596,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2584,7 +2604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2616,7 +2636,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2632,7 +2652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2640,7 +2660,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2656,7 +2676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2672,7 +2692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2688,7 +2708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2696,7 +2716,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2704,7 +2724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2712,7 +2732,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2720,7 +2740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2728,7 +2748,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2736,7 +2756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2744,7 +2764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2784,7 +2804,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2792,7 +2812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2800,7 +2820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2808,7 +2828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2816,7 +2836,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2824,7 +2844,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2848,7 +2868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2856,7 +2876,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2864,7 +2884,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2872,7 +2892,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2880,7 +2900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -2912,7 +2932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -2920,7 +2940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -2936,7 +2956,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -2944,7 +2964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -2952,7 +2972,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -2960,7 +2980,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -2976,7 +2996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -2984,7 +3004,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -2992,7 +3012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3000,7 +3020,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3008,7 +3028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3016,7 +3036,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3024,7 +3044,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3032,7 +3052,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3040,7 +3060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3056,7 +3076,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3064,7 +3084,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3072,7 +3092,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3096,7 +3116,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3112,7 +3132,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3144,7 +3164,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3152,7 +3172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -3160,7 +3180,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -3184,7 +3204,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -3192,7 +3212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -3200,7 +3220,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -3232,7 +3252,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -3240,7 +3260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -3256,7 +3276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -3264,7 +3284,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -3280,7 +3300,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -3296,7 +3316,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -3304,7 +3324,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -3320,7 +3340,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -3336,7 +3356,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -3344,7 +3364,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -3352,7 +3372,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -3384,7 +3404,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -3392,7 +3412,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -3408,7 +3428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -3416,7 +3436,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -3424,7 +3444,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -3432,7 +3452,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -3440,7 +3460,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -3456,7 +3476,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -3464,7 +3484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -3472,7 +3492,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -3480,7 +3500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -3504,7 +3524,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -3512,7 +3532,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -3520,7 +3540,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -3528,7 +3548,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -3536,7 +3556,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -3552,7 +3572,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -3560,7 +3580,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -3568,7 +3588,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -3576,7 +3596,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -3584,7 +3604,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -3592,7 +3612,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -3608,7 +3628,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -3624,7 +3644,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -3632,7 +3652,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -3640,7 +3660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -3648,7 +3668,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -3656,7 +3676,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -3664,7 +3684,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -3672,7 +3692,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -3688,7 +3708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -3696,7 +3716,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -3704,7 +3724,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -3712,7 +3732,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -3720,7 +3740,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -3744,7 +3764,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -3752,7 +3772,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -3760,7 +3780,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -3776,7 +3796,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -3792,7 +3812,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -3808,7 +3828,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -3816,7 +3836,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -3824,7 +3844,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -3832,7 +3852,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -3840,7 +3860,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -3848,7 +3868,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -3856,7 +3876,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -3864,7 +3884,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -3872,7 +3892,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -3880,7 +3900,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -3888,7 +3908,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -3904,7 +3924,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -3912,7 +3932,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -3936,7 +3956,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -3944,7 +3964,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -3952,7 +3972,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -3960,7 +3980,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -3976,7 +3996,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -3984,7 +4004,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -3992,7 +4012,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -4000,7 +4020,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -4016,7 +4036,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -4024,7 +4044,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -4040,7 +4060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -4056,7 +4076,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -4064,7 +4084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -4072,7 +4092,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -4080,7 +4100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -4096,7 +4116,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -4104,7 +4124,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -4112,7 +4132,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -4120,7 +4140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -4128,7 +4148,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -4136,7 +4156,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -4144,7 +4164,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -4152,7 +4172,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -4160,7 +4180,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -4176,7 +4196,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -4184,7 +4204,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -4192,7 +4212,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -4200,7 +4220,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -4208,7 +4228,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -4216,7 +4236,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -4224,7 +4244,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -4240,7 +4260,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -4248,7 +4268,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -4256,7 +4276,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -4264,7 +4284,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -4272,7 +4292,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -4280,7 +4300,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -4296,7 +4316,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -4304,7 +4324,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -4312,7 +4332,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -4320,7 +4340,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -4336,7 +4356,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -4344,7 +4364,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -4352,7 +4372,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -4360,7 +4380,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -4368,7 +4388,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -4376,7 +4396,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -4384,7 +4404,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -4392,7 +4412,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -4408,7 +4428,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -4416,7 +4436,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -4424,7 +4444,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -4432,7 +4452,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -4440,7 +4460,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -4448,7 +4468,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -4456,7 +4476,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -4464,7 +4484,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -4472,7 +4492,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -4480,7 +4500,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -4488,7 +4508,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -4496,7 +4516,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -4504,7 +4524,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -4512,7 +4532,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -4520,7 +4540,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -4528,7 +4548,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -4536,7 +4556,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -4544,7 +4564,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -4552,7 +4572,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -4560,7 +4580,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -4568,7 +4588,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -4576,7 +4596,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -4584,7 +4604,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -4592,7 +4612,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -4600,7 +4620,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -4608,7 +4628,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -4616,7 +4636,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -4624,7 +4644,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -4632,7 +4652,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -4640,7 +4660,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -4648,7 +4668,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -4656,7 +4676,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -4664,7 +4684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -4672,7 +4692,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -4680,7 +4700,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -4688,7 +4708,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -4696,7 +4716,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -4704,7 +4724,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -4712,7 +4732,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -4720,7 +4740,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -4728,7 +4748,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -4744,7 +4764,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -4752,7 +4772,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -4760,7 +4780,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -4768,7 +4788,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -4776,7 +4796,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -4784,7 +4804,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -4792,7 +4812,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -4800,7 +4820,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -4808,7 +4828,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -4816,7 +4836,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -4824,7 +4844,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -4832,7 +4852,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -4840,7 +4860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -4848,7 +4868,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -4856,7 +4876,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -4864,7 +4884,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -4872,7 +4892,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -4880,7 +4900,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -4888,7 +4908,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -4896,7 +4916,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -4904,7 +4924,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -4912,7 +4932,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -4920,7 +4940,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -4928,7 +4948,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -4936,7 +4956,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -4944,7 +4964,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -4952,7 +4972,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -4960,7 +4980,32 @@
         <v>415</v>
       </c>
     </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>